--- a/November'21/17.11.2021/Daily Sales Info.....xlsx
+++ b/November'21/17.11.2021/Daily Sales Info.....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="851" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,6 +965,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25847,9 +25859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52352,9 +52364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54367,9 +54379,9 @@
       <c r="K31" s="54"/>
       <c r="L31" s="54"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="H32" s="54"/>
-      <c r="I32" s="54">
+      <c r="I32" s="72">
         <f>E28*20+F28*10+G28*9+H28*9</f>
         <v>70090</v>
       </c>
@@ -54377,7 +54389,11 @@
       <c r="K32" s="54"/>
       <c r="L32" s="54"/>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="D33" s="71">
+        <f>D29-(D29*3.75%)</f>
+        <v>238398.73749999999</v>
+      </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
@@ -54386,7 +54402,7 @@
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="H34" s="54"/>
@@ -54395,7 +54411,7 @@
       <c r="K34" s="54"/>
       <c r="L34" s="54"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
       <c r="H35" s="54"/>
@@ -54404,7 +54420,7 @@
       <c r="K35" s="54"/>
       <c r="L35" s="54"/>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
@@ -54413,7 +54429,7 @@
       <c r="K36" s="54"/>
       <c r="L36" s="54"/>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
       <c r="H37" s="54"/>
@@ -54422,7 +54438,7 @@
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
